--- a/_Inputs/PDF.xlsx
+++ b/_Inputs/PDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CGIAR\Documents\GitHub\XX_tool\_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A33FD12-6A4E-4088-B648-B9424BF728CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672B9C2-AAD7-4DDE-9B4E-371342DDFCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34005" yWindow="1905" windowWidth="17610" windowHeight="10215" tabRatio="933" xr2:uid="{5EE837AF-EAE9-4554-80F0-05E50B1DBBC3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="933" xr2:uid="{5EE837AF-EAE9-4554-80F0-05E50B1DBBC3}"/>
   </bookViews>
   <sheets>
     <sheet name="IKEA Foundation " sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>About</t>
-  </si>
-  <si>
     <t>Cat</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>https://ikeafoundation.org/learnings/the-disha-programme-in-india/</t>
-  </si>
-  <si>
-    <t>https://ikeafoundation.org/values/</t>
   </si>
   <si>
     <t>Learnings</t>
@@ -446,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F41D7-2B1F-43D2-8225-EF986E37AE74}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -475,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -486,10 +480,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -497,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -508,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -519,10 +513,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -530,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -541,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -552,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -563,35 +557,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B5E9AD00-DF61-44C6-A5BB-2BA5ACE018DA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB56C2C9-2743-4364-8749-8B9467998F4C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{5E56244E-0A39-46E9-B1B5-BC286FCAED57}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{047DD79A-9D91-494C-9E5D-2E619930DBA6}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{C6EDCD88-3759-4FF9-94CF-1CBC18CB7B19}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{CAE7FCB1-0530-470F-B632-7A38EED2207B}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{87FC1E48-73CE-4582-AA80-530BE1F25E4B}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{2C674714-7E85-43F5-9A64-2518A3072226}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{42FD573F-2843-4EA6-B0FB-3113B809051C}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{18A62F49-5822-4E90-90E5-26F00108CA15}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{DB56C2C9-2743-4364-8749-8B9467998F4C}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{5E56244E-0A39-46E9-B1B5-BC286FCAED57}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{CAE7FCB1-0530-470F-B632-7A38EED2207B}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{87FC1E48-73CE-4582-AA80-530BE1F25E4B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{2C674714-7E85-43F5-9A64-2518A3072226}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{42FD573F-2843-4EA6-B0FB-3113B809051C}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{18A62F49-5822-4E90-90E5-26F00108CA15}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{B5E9AD00-DF61-44C6-A5BB-2BA5ACE018DA}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{047DD79A-9D91-494C-9E5D-2E619930DBA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
